--- a/deployment/v3/mosip/kernel/masterdata/xlsx/zone_user.xlsx
+++ b/deployment/v3/mosip/kernel/masterdata/xlsx/zone_user.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t xml:space="preserve">lang_code</t>
   </si>
@@ -32,15 +32,28 @@
   </si>
   <si>
     <t xml:space="preserve">is_active</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">globaladmin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fra</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
+    <numFmt numFmtId="166" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -122,7 +135,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -133,6 +146,14 @@
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -152,13 +173,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1048576 1:1"/>
+      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.4453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.6"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -172,6 +197,34 @@
       </c>
       <c r="D1" s="2" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="3" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/deployment/v3/mosip/kernel/masterdata/xlsx/zone_user.xlsx
+++ b/deployment/v3/mosip/kernel/masterdata/xlsx/zone_user.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t xml:space="preserve">lang_code</t>
   </si>
@@ -41,9 +41,6 @@
   </si>
   <si>
     <t xml:space="preserve">globaladmin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fra</t>
   </si>
 </sst>
 </file>
@@ -135,7 +132,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -149,10 +146,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -173,13 +166,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.47265625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.6"/>
@@ -213,20 +206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>

--- a/deployment/v3/mosip/kernel/masterdata/xlsx/zone_user.xlsx
+++ b/deployment/v3/mosip/kernel/masterdata/xlsx/zone_user.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t xml:space="preserve">lang_code</t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t xml:space="preserve">globaladmin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Service-account-mosip-resident-client</t>
   </si>
 </sst>
 </file>
@@ -169,13 +172,15 @@
   <dimension ref="A1:D1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.47265625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="32.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="9.02"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -202,7 +207,23 @@
       <c r="C2" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="3" t="b">
+      <c r="D2" s="3" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>

--- a/deployment/v3/mosip/kernel/masterdata/xlsx/zone_user.xlsx
+++ b/deployment/v3/mosip/kernel/masterdata/xlsx/zone_user.xlsx
@@ -172,10 +172,10 @@
   <dimension ref="A1:D1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.82"/>
@@ -207,8 +207,7 @@
       <c r="C2" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="3" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="D2" s="3" t="b">
         <v>1</v>
       </c>
     </row>
@@ -222,8 +221,7 @@
       <c r="C3" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="3" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="D3" s="3" t="b">
         <v>1</v>
       </c>
     </row>
